--- a/Examples/Yield Curve.xlsx
+++ b/Examples/Yield Curve.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23519"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\backup\xlquote\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\others\Data\XLQuote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C53133-D7EA-47F5-B575-12841E273D92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C0FA21-1C38-4F23-999C-C91DFECCDD17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,37 +349,37 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.17</c:v>
+                  <c:v>0.39</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.22</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.42</c:v>
+                  <c:v>1.04</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.68</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.92</c:v>
+                  <c:v>1.45</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.46</c:v>
+                  <c:v>1.88</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.66</c:v>
+                  <c:v>1.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -466,37 +466,37 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.1</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.15</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.26</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.35</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.51</c:v>
+                  <c:v>1.29</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.63</c:v>
+                  <c:v>1.63</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.04</c:v>
+                  <c:v>2.2400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.23</c:v>
+                  <c:v>2.34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1634,11 +1634,11 @@
       </c>
       <c r="B2" s="2">
         <f>_xll.xlquoteEconomics(D2,"lin",0)</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="C2" s="2">
-        <f t="array" ref="C2">_xll.xlquoteEconomics(D2,"lin",161)</f>
-        <v>0.1</v>
+        <f t="array" ref="C2">_xll.xlquoteEconomics(D2,"lin",-161)</f>
+        <v>0.02</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
@@ -1650,11 +1650,11 @@
       </c>
       <c r="B3" s="2">
         <f>_xll.xlquoteEconomics(D3,"lin",0)</f>
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="C3" s="2">
-        <f t="array" ref="C3">_xll.xlquoteEconomics(D3,"lin",161)</f>
-        <v>0.12</v>
+        <f t="array" ref="C3">_xll.xlquoteEconomics(D3,"lin",-161)</f>
+        <v>0.02</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>1</v>
@@ -1666,11 +1666,11 @@
       </c>
       <c r="B4" s="2">
         <f>_xll.xlquoteEconomics(D4,"lin",0)</f>
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C4" s="2">
-        <f t="array" ref="C4">_xll.xlquoteEconomics(D4,"lin",161)</f>
-        <v>0.15</v>
+        <f t="array" ref="C4">_xll.xlquoteEconomics(D4,"lin",-161)</f>
+        <v>0.04</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>2</v>
@@ -1682,11 +1682,11 @@
       </c>
       <c r="B5" s="2">
         <f>_xll.xlquoteEconomics(D5,"lin",0)</f>
-        <v>0.12</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C5" s="2">
-        <f t="array" ref="C5">_xll.xlquoteEconomics(D5,"lin",161)</f>
-        <v>0.15</v>
+        <f t="array" ref="C5">_xll.xlquoteEconomics(D5,"lin",-161)</f>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -1698,11 +1698,11 @@
       </c>
       <c r="B6" s="2">
         <f>_xll.xlquoteEconomics(D6,"lin",0)</f>
-        <v>0.17</v>
+        <v>0.39</v>
       </c>
       <c r="C6" s="2">
-        <f t="array" ref="C6">_xll.xlquoteEconomics(D6,"lin",161)</f>
-        <v>0.2</v>
+        <f t="array" ref="C6">_xll.xlquoteEconomics(D6,"lin",-161)</f>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>4</v>
@@ -1714,11 +1714,11 @@
       </c>
       <c r="B7" s="2">
         <f>_xll.xlquoteEconomics(D7,"lin",0)</f>
-        <v>0.22</v>
+        <v>0.66</v>
       </c>
       <c r="C7" s="2">
-        <f t="array" ref="C7">_xll.xlquoteEconomics(D7,"lin",161)</f>
-        <v>0.26</v>
+        <f t="array" ref="C7">_xll.xlquoteEconomics(D7,"lin",-161)</f>
+        <v>0.3</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
@@ -1730,11 +1730,11 @@
       </c>
       <c r="B8" s="2">
         <f>_xll.xlquoteEconomics(D8,"lin",0)</f>
-        <v>0.42</v>
+        <v>1.04</v>
       </c>
       <c r="C8" s="2">
-        <f t="array" ref="C8">_xll.xlquoteEconomics(D8,"lin",161)</f>
-        <v>0.35</v>
+        <f t="array" ref="C8">_xll.xlquoteEconomics(D8,"lin",-161)</f>
+        <v>0.82</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>6</v>
@@ -1746,11 +1746,11 @@
       </c>
       <c r="B9" s="2">
         <f>_xll.xlquoteEconomics(D9,"lin",0)</f>
-        <v>0.68</v>
+        <v>1.3</v>
       </c>
       <c r="C9" s="2">
-        <f t="array" ref="C9">_xll.xlquoteEconomics(D9,"lin",161)</f>
-        <v>0.51</v>
+        <f t="array" ref="C9">_xll.xlquoteEconomics(D9,"lin",-161)</f>
+        <v>1.29</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>7</v>
@@ -1762,11 +1762,11 @@
       </c>
       <c r="B10" s="2">
         <f>_xll.xlquoteEconomics(D10,"lin",0)</f>
-        <v>0.92</v>
+        <v>1.45</v>
       </c>
       <c r="C10" s="2">
-        <f t="array" ref="C10">_xll.xlquoteEconomics(D10,"lin",161)</f>
-        <v>0.63</v>
+        <f t="array" ref="C10">_xll.xlquoteEconomics(D10,"lin",-161)</f>
+        <v>1.63</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>8</v>
@@ -1778,11 +1778,11 @@
       </c>
       <c r="B11" s="2">
         <f>_xll.xlquoteEconomics(D11,"lin",0)</f>
-        <v>1.46</v>
+        <v>1.88</v>
       </c>
       <c r="C11" s="2">
-        <f t="array" ref="C11">_xll.xlquoteEconomics(D11,"lin",161)</f>
-        <v>1.04</v>
+        <f t="array" ref="C11">_xll.xlquoteEconomics(D11,"lin",-161)</f>
+        <v>2.2400000000000002</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>10</v>
@@ -1794,11 +1794,11 @@
       </c>
       <c r="B12" s="2">
         <f>_xll.xlquoteEconomics(D12,"lin",0)</f>
-        <v>1.66</v>
+        <v>1.87</v>
       </c>
       <c r="C12" s="2">
-        <f t="array" ref="C12">_xll.xlquoteEconomics(D12,"lin",161)</f>
-        <v>1.23</v>
+        <f t="array" ref="C12">_xll.xlquoteEconomics(D12,"lin",-161)</f>
+        <v>2.34</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>11</v>
@@ -1810,11 +1810,11 @@
       </c>
       <c r="B13" s="2">
         <f>_xll.xlquoteEconomics(D13,"lin",0)</f>
-        <v>0.79</v>
+        <v>1.06</v>
       </c>
       <c r="C13" s="2">
-        <f t="array" ref="C13">_xll.xlquoteEconomics(D13,"lin",161)</f>
-        <v>0.38</v>
+        <f t="array" ref="C13">_xll.xlquoteEconomics(D13,"lin",-161)</f>
+        <v>1.53</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>12</v>

--- a/Examples/Yield Curve.xlsx
+++ b/Examples/Yield Curve.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\others\Data\XLQuote\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C0FA21-1C38-4F23-999C-C91DFECCDD17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="29000" windowHeight="15680"/>
   </bookViews>
   <sheets>
     <sheet name="Yield Curve" sheetId="7" r:id="rId1"/>
@@ -27,14 +26,37 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>DGS1MO</t>
   </si>
@@ -118,16 +140,21 @@
   </si>
   <si>
     <t>Series ID</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,12 +165,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -176,12 +197,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -235,11 +258,17 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Yield Curve</a:t>
+              <a:t>Yield</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Curve</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -272,15 +301,15 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Yield Curve'!$B$1</c:f>
+              <c:f>'Yield Curve'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -290,7 +319,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -301,93 +330,94 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Yield Curve'!$A$2:$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1M</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3M</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6M</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1Y</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2Y</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3Y</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5Y</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7Y</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10Y</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>20Y</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>30Y</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
+          <c:xVal>
             <c:numRef>
               <c:f>'Yield Curve'!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.0_);_(* \(#,##0.0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Yield Curve'!$C$2:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.05</c:v>
+                  <c:v>0.37</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.05</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>1.41</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.39</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.66</c:v>
+                  <c:v>2.87</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.04</c:v>
+                  <c:v>2.92</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3</c:v>
+                  <c:v>2.94</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.45</c:v>
+                  <c:v>2.89</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.88</c:v>
+                  <c:v>3.14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.87</c:v>
+                  <c:v>2.96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6487-4D4F-AA6D-D666753347FB}"/>
+              <c16:uniqueId val="{00000000-9767-4C04-85D7-0ED2BD111C28}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -395,18 +425,10 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Yield Curve'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Year Ago</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Year Ago</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -418,93 +440,94 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Yield Curve'!$A$2:$A$12</c:f>
-              <c:strCache>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Yield Curve'!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.0_);_(* \(#,##0.0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1M</c:v>
+                <c:pt idx="0" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3M</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6M</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1Y</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2Y</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3Y</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5Y</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7Y</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10Y</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>20Y</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>30Y</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>'Yield Curve'!$C$2:$C$12</c:f>
+              <c:f>'Yield Curve'!$D$2:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.02</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.02</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.04</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>0.23</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.3</c:v>
+                  <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.82</c:v>
+                  <c:v>0.84</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.29</c:v>
+                  <c:v>1.1299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.63</c:v>
+                  <c:v>1.34</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.2400000000000002</c:v>
+                  <c:v>1.83</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.34</c:v>
+                  <c:v>1.88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6487-4D4F-AA6D-D666753347FB}"/>
+              <c16:uniqueId val="{00000002-9767-4C04-85D7-0ED2BD111C28}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -516,19 +539,19 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="343049728"/>
-        <c:axId val="132617856"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="343049728"/>
+        <c:axId val="2090114112"/>
+        <c:axId val="2090113280"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2090114112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="30"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -536,8 +559,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -564,15 +587,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132617856"/>
+        <c:crossAx val="2090113280"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="132617856"/>
+        <c:axId val="2090113280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -593,13 +614,19 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -623,13 +650,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343049728"/>
+        <c:crossAx val="2090114112"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="25400">
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
@@ -637,6 +664,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -668,13 +696,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -751,7 +772,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -778,8 +799,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -859,11 +880,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -874,11 +890,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -890,7 +901,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -910,9 +921,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -925,10 +933,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -968,22 +976,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1088,8 +1097,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1221,19 +1230,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1247,6 +1257,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1270,26 +1291,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3174</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A994DA6-129A-4CC5-B497-C168E0444608}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1603,230 +1618,433 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="9.19921875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.19921875" style="1"/>
+    <col min="1" max="4" width="9.1796875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="2">
-        <f>_xll.xlquoteEconomics(D2,"lin",0)</f>
-        <v>0.05</v>
-      </c>
-      <c r="C2" s="2">
-        <f t="array" ref="C2">_xll.xlquoteEconomics(D2,"lin",-161)</f>
-        <v>0.02</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="B2" s="6">
+        <f>1/12</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C2" s="2" cm="1">
+        <f t="array" ref="C2">_xll.xlquoteEconomics(E2,"value",0,"FRED")</f>
+        <v>0.37</v>
+      </c>
+      <c r="D2" s="2" cm="1">
+        <f t="array" ref="D2">_xll.xlquoteEconomics(E2,"value",-161,"FRED")</f>
+        <v>0.06</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="2">
-        <f>_xll.xlquoteEconomics(D3,"lin",0)</f>
-        <v>0.05</v>
-      </c>
-      <c r="C3" s="2">
-        <f t="array" ref="C3">_xll.xlquoteEconomics(D3,"lin",-161)</f>
-        <v>0.02</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="B3" s="4">
+        <f>3/12</f>
+        <v>0.25</v>
+      </c>
+      <c r="C3" s="2" cm="1">
+        <f t="array" ref="C3">_xll.xlquoteEconomics(E3,"value",0,"FRED")</f>
+        <v>0.85</v>
+      </c>
+      <c r="D3" s="2" cm="1">
+        <f t="array" ref="D3">_xll.xlquoteEconomics(E3,"value",-161,"FRED")</f>
+        <v>0.04</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2">
-        <f>_xll.xlquoteEconomics(D4,"lin",0)</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C4" s="2">
-        <f t="array" ref="C4">_xll.xlquoteEconomics(D4,"lin",-161)</f>
-        <v>0.04</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="B4" s="5">
+        <f>6/12</f>
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="2" cm="1">
+        <f t="array" ref="C4">_xll.xlquoteEconomics(E4,"value",0,"FRED")</f>
+        <v>1.41</v>
+      </c>
+      <c r="D4" s="2" cm="1">
+        <f t="array" ref="D4">_xll.xlquoteEconomics(E4,"value",-161,"FRED")</f>
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="2">
-        <f>_xll.xlquoteEconomics(D5,"lin",0)</f>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="C5" s="2">
-        <f t="array" ref="C5">_xll.xlquoteEconomics(D5,"lin",-161)</f>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" cm="1">
+        <f t="array" ref="C5">_xll.xlquoteEconomics(E5,"value",0,"FRED")</f>
+        <v>2.1</v>
+      </c>
+      <c r="D5" s="2" cm="1">
+        <f t="array" ref="D5">_xll.xlquoteEconomics(E5,"value",-161,"FRED")</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="2">
-        <f>_xll.xlquoteEconomics(D6,"lin",0)</f>
-        <v>0.39</v>
-      </c>
-      <c r="C6" s="2">
-        <f t="array" ref="C6">_xll.xlquoteEconomics(D6,"lin",-161)</f>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="B6" s="5">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" cm="1">
+        <f t="array" ref="C6">_xll.xlquoteEconomics(E6,"value",0,"FRED")</f>
+        <v>2.7</v>
+      </c>
+      <c r="D6" s="2" cm="1">
+        <f t="array" ref="D6">_xll.xlquoteEconomics(E6,"value",-161,"FRED")</f>
+        <v>0.23</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="2">
-        <f>_xll.xlquoteEconomics(D7,"lin",0)</f>
-        <v>0.66</v>
-      </c>
-      <c r="C7" s="2">
-        <f t="array" ref="C7">_xll.xlquoteEconomics(D7,"lin",-161)</f>
-        <v>0.3</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="B7" s="5">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" cm="1">
+        <f t="array" ref="C7">_xll.xlquoteEconomics(E7,"value",0,"FRED")</f>
+        <v>2.87</v>
+      </c>
+      <c r="D7" s="2" cm="1">
+        <f t="array" ref="D7">_xll.xlquoteEconomics(E7,"value",-161,"FRED")</f>
+        <v>0.46</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="2">
-        <f>_xll.xlquoteEconomics(D8,"lin",0)</f>
-        <v>1.04</v>
-      </c>
-      <c r="C8" s="2">
-        <f t="array" ref="C8">_xll.xlquoteEconomics(D8,"lin",-161)</f>
-        <v>0.82</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="B8" s="5">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" cm="1">
+        <f t="array" ref="C8">_xll.xlquoteEconomics(E8,"value",0,"FRED")</f>
+        <v>2.92</v>
+      </c>
+      <c r="D8" s="2" cm="1">
+        <f t="array" ref="D8">_xll.xlquoteEconomics(E8,"value",-161,"FRED")</f>
+        <v>0.84</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="2">
-        <f>_xll.xlquoteEconomics(D9,"lin",0)</f>
-        <v>1.3</v>
-      </c>
-      <c r="C9" s="2">
-        <f t="array" ref="C9">_xll.xlquoteEconomics(D9,"lin",-161)</f>
-        <v>1.29</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="B9" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C9" s="2" cm="1">
+        <f t="array" ref="C9">_xll.xlquoteEconomics(E9,"value",0,"FRED")</f>
+        <v>2.94</v>
+      </c>
+      <c r="D9" s="2" cm="1">
+        <f t="array" ref="D9">_xll.xlquoteEconomics(E9,"value",-161,"FRED")</f>
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="2">
-        <f>_xll.xlquoteEconomics(D10,"lin",0)</f>
-        <v>1.45</v>
-      </c>
-      <c r="C10" s="2">
-        <f t="array" ref="C10">_xll.xlquoteEconomics(D10,"lin",-161)</f>
-        <v>1.63</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="B10" s="5">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2" cm="1">
+        <f t="array" ref="C10">_xll.xlquoteEconomics(E10,"value",0,"FRED")</f>
+        <v>2.89</v>
+      </c>
+      <c r="D10" s="2" cm="1">
+        <f t="array" ref="D10">_xll.xlquoteEconomics(E10,"value",-161,"FRED")</f>
+        <v>1.34</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="2">
-        <f>_xll.xlquoteEconomics(D11,"lin",0)</f>
-        <v>1.88</v>
-      </c>
-      <c r="C11" s="2">
-        <f t="array" ref="C11">_xll.xlquoteEconomics(D11,"lin",-161)</f>
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="B11" s="5">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2" cm="1">
+        <f t="array" ref="C11">_xll.xlquoteEconomics(E11,"value",0,"FRED")</f>
+        <v>3.14</v>
+      </c>
+      <c r="D11" s="2" cm="1">
+        <f t="array" ref="D11">_xll.xlquoteEconomics(E11,"value",-161,"FRED")</f>
+        <v>1.83</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="2">
-        <f>_xll.xlquoteEconomics(D12,"lin",0)</f>
-        <v>1.87</v>
-      </c>
-      <c r="C12" s="2">
-        <f t="array" ref="C12">_xll.xlquoteEconomics(D12,"lin",-161)</f>
-        <v>2.34</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="B12" s="5">
+        <v>30</v>
+      </c>
+      <c r="C12" s="2" cm="1">
+        <f t="array" ref="C12">_xll.xlquoteEconomics(E12,"value",0,"FRED")</f>
+        <v>2.96</v>
+      </c>
+      <c r="D12" s="2" cm="1">
+        <f t="array" ref="D12">_xll.xlquoteEconomics(E12,"value",-161,"FRED")</f>
+        <v>1.88</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="2">
-        <f>_xll.xlquoteEconomics(D13,"lin",0)</f>
-        <v>1.06</v>
-      </c>
-      <c r="C13" s="2">
-        <f t="array" ref="C13">_xll.xlquoteEconomics(D13,"lin",-161)</f>
-        <v>1.53</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="C13" s="2" cm="1">
+        <f t="array" ref="C13">_xll.xlquoteEconomics(E13,"value",0,"FRED")</f>
+        <v>0.26</v>
+      </c>
+      <c r="D13" s="2" cm="1">
+        <f t="array" ref="D13">_xll.xlquoteEconomics(E13,"value",-161,"FRED")</f>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B16" s="6"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17" s="4"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B18" s="4"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B19" s="5"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B20" s="5"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B21" s="5"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B22" s="5"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B23" s="5"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B24" s="5"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B25" s="5"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B26" s="5"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B27" s="5"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B28" s="5"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="5"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="5"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="5"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="5"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B33" s="5"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="5"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="5"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="5"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="5"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B38" s="5"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="5"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="5"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="5"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="5"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B43" s="5"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="5"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="5"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="5"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="5"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B48" s="5"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A15" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A15:B15"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Examples/Yield Curve.xlsx
+++ b/Examples/Yield Curve.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="29000" windowHeight="15680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Yield Curve" sheetId="7" r:id="rId1"/>
@@ -590,7 +590,7 @@
         <c:crossAx val="2090113280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
+        <c:majorUnit val="2"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="2090113280"/>

--- a/Examples/Yield Curve.xlsx
+++ b/Examples/Yield Curve.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Yield Curve" sheetId="7" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -379,37 +379,37 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.37</c:v>
+                  <c:v>1.28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85</c:v>
+                  <c:v>1.72</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.41</c:v>
+                  <c:v>2.5099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7</c:v>
+                  <c:v>2.92</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.87</c:v>
+                  <c:v>2.99</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.92</c:v>
+                  <c:v>3.01</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.94</c:v>
+                  <c:v>3.04</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.89</c:v>
+                  <c:v>2.98</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>3.38</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>3.14</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -492,34 +492,34 @@
                   <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.04</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.05</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23</c:v>
+                  <c:v>0.52</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.46</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.84</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1299999999999999</c:v>
+                  <c:v>1.49</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.34</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.83</c:v>
+                  <c:v>2.04</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.88</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1654,9 +1654,9 @@
         <f>1/12</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C2" s="2" cm="1">
-        <f t="array" ref="C2">_xll.xlquoteEconomics(E2,"value",0,"FRED")</f>
-        <v>0.37</v>
+      <c r="C2" s="2">
+        <f>_xll.xlquoteEconomics(E2,"value",0,"FRED")</f>
+        <v>1.28</v>
       </c>
       <c r="D2" s="2" cm="1">
         <f t="array" ref="D2">_xll.xlquoteEconomics(E2,"value",-161,"FRED")</f>
@@ -1676,11 +1676,11 @@
       </c>
       <c r="C3" s="2" cm="1">
         <f t="array" ref="C3">_xll.xlquoteEconomics(E3,"value",0,"FRED")</f>
-        <v>0.85</v>
+        <v>1.72</v>
       </c>
       <c r="D3" s="2" cm="1">
         <f t="array" ref="D3">_xll.xlquoteEconomics(E3,"value",-161,"FRED")</f>
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>1</v>
@@ -1696,11 +1696,11 @@
       </c>
       <c r="C4" s="2" cm="1">
         <f t="array" ref="C4">_xll.xlquoteEconomics(E4,"value",0,"FRED")</f>
-        <v>1.41</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="D4" s="2" cm="1">
         <f t="array" ref="D4">_xll.xlquoteEconomics(E4,"value",-161,"FRED")</f>
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>2</v>
@@ -1715,11 +1715,11 @@
       </c>
       <c r="C5" s="2" cm="1">
         <f t="array" ref="C5">_xll.xlquoteEconomics(E5,"value",0,"FRED")</f>
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="D5" s="2" cm="1">
         <f t="array" ref="D5">_xll.xlquoteEconomics(E5,"value",-161,"FRED")</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0.18</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>3</v>
@@ -1734,11 +1734,11 @@
       </c>
       <c r="C6" s="2" cm="1">
         <f t="array" ref="C6">_xll.xlquoteEconomics(E6,"value",0,"FRED")</f>
-        <v>2.7</v>
+        <v>2.92</v>
       </c>
       <c r="D6" s="2" cm="1">
         <f t="array" ref="D6">_xll.xlquoteEconomics(E6,"value",-161,"FRED")</f>
-        <v>0.23</v>
+        <v>0.52</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>4</v>
@@ -1753,11 +1753,11 @@
       </c>
       <c r="C7" s="2" cm="1">
         <f t="array" ref="C7">_xll.xlquoteEconomics(E7,"value",0,"FRED")</f>
-        <v>2.87</v>
+        <v>2.99</v>
       </c>
       <c r="D7" s="2" cm="1">
         <f t="array" ref="D7">_xll.xlquoteEconomics(E7,"value",-161,"FRED")</f>
-        <v>0.46</v>
+        <v>0.85</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>5</v>
@@ -1772,11 +1772,11 @@
       </c>
       <c r="C8" s="2" cm="1">
         <f t="array" ref="C8">_xll.xlquoteEconomics(E8,"value",0,"FRED")</f>
-        <v>2.92</v>
+        <v>3.01</v>
       </c>
       <c r="D8" s="2" cm="1">
         <f t="array" ref="D8">_xll.xlquoteEconomics(E8,"value",-161,"FRED")</f>
-        <v>0.84</v>
+        <v>1.24</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>6</v>
@@ -1791,11 +1791,11 @@
       </c>
       <c r="C9" s="2" cm="1">
         <f t="array" ref="C9">_xll.xlquoteEconomics(E9,"value",0,"FRED")</f>
-        <v>2.94</v>
+        <v>3.04</v>
       </c>
       <c r="D9" s="2" cm="1">
         <f t="array" ref="D9">_xll.xlquoteEconomics(E9,"value",-161,"FRED")</f>
-        <v>1.1299999999999999</v>
+        <v>1.49</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>7</v>
@@ -1810,11 +1810,11 @@
       </c>
       <c r="C10" s="2" cm="1">
         <f t="array" ref="C10">_xll.xlquoteEconomics(E10,"value",0,"FRED")</f>
-        <v>2.89</v>
+        <v>2.98</v>
       </c>
       <c r="D10" s="2" cm="1">
         <f t="array" ref="D10">_xll.xlquoteEconomics(E10,"value",-161,"FRED")</f>
-        <v>1.34</v>
+        <v>1.6</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
@@ -1829,11 +1829,11 @@
       </c>
       <c r="C11" s="2" cm="1">
         <f t="array" ref="C11">_xll.xlquoteEconomics(E11,"value",0,"FRED")</f>
-        <v>3.14</v>
+        <v>3.38</v>
       </c>
       <c r="D11" s="2" cm="1">
         <f t="array" ref="D11">_xll.xlquoteEconomics(E11,"value",-161,"FRED")</f>
-        <v>1.83</v>
+        <v>2.04</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>10</v>
@@ -1848,11 +1848,11 @@
       </c>
       <c r="C12" s="2" cm="1">
         <f t="array" ref="C12">_xll.xlquoteEconomics(E12,"value",0,"FRED")</f>
-        <v>2.96</v>
+        <v>3.14</v>
       </c>
       <c r="D12" s="2" cm="1">
         <f t="array" ref="D12">_xll.xlquoteEconomics(E12,"value",-161,"FRED")</f>
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>11</v>
@@ -1864,11 +1864,11 @@
       </c>
       <c r="C13" s="2" cm="1">
         <f t="array" ref="C13">_xll.xlquoteEconomics(E13,"value",0,"FRED")</f>
-        <v>0.26</v>
+        <v>0.04</v>
       </c>
       <c r="D13" s="2" cm="1">
         <f t="array" ref="D13">_xll.xlquoteEconomics(E13,"value",-161,"FRED")</f>
-        <v>1.1399999999999999</v>
+        <v>1.07</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>12</v>

--- a/Examples/Yield Curve.xlsx
+++ b/Examples/Yield Curve.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\others\Data\XLQuote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79298E6-2B37-477F-B157-2A2F38EDD9FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF740F3D-ED78-4180-A7D7-B2C3C2074AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Yield Curve" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="YearAgo">OFFSET('Yield Curve'!$B$5,'Yield Curve'!$N$4,0,1,12)</definedName>
+    <definedName name="YearAgo">OFFSET('Yield Curve'!#REF!,'Yield Curve'!$N$2,0,1,12)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,6 +28,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>10Y/2Y</t>
   </si>
@@ -65,18 +66,51 @@
     <t>10Y/3M</t>
   </si>
   <si>
-    <t>Year</t>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>1 Mo</t>
+  </si>
+  <si>
+    <t>2 Mo</t>
+  </si>
+  <si>
+    <t>3 Mo</t>
+  </si>
+  <si>
+    <t>6 Mo</t>
+  </si>
+  <si>
+    <t>1 Yr</t>
+  </si>
+  <si>
+    <t>2 Yr</t>
+  </si>
+  <si>
+    <t>3 Yr</t>
+  </si>
+  <si>
+    <t>5 Yr</t>
+  </si>
+  <si>
+    <t>7 Yr</t>
+  </si>
+  <si>
+    <t>10 Yr</t>
+  </si>
+  <si>
+    <t>20 Yr</t>
+  </si>
+  <si>
+    <t>30 Yr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -562,11 +596,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -574,12 +605,10 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -690,7 +719,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.8341588136613408E-2"/>
+          <c:y val="0.17893133080230461"/>
+          <c:w val="0.90253677195348736"/>
+          <c:h val="0.6036585004986107"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -711,91 +750,88 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="12"/>
+              <c:pt idx="0">
+                <c:v>0.08</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>0.17</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>0.25</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>0.5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>20</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>30</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Yield Curve'!$B$2:$M$2</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>8.3333333333333329E-2</c:v>
+                  <c:v>4.58</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>4.59</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>30</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Yield Curve'!$B$4:$M$4</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>2.39</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.69</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.89</c:v>
+                  <c:v>4.67</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.26</c:v>
+                  <c:v>4.7699999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.36</c:v>
+                  <c:v>4.6900000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.37</c:v>
+                  <c:v>4.22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.4</c:v>
+                  <c:v>3.88</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.2</c:v>
+                  <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.14</c:v>
+                  <c:v>3.55</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.04</c:v>
+                  <c:v>3.49</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.44</c:v>
+                  <c:v>3.79</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.21</c:v>
+                  <c:v>3.61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -827,91 +863,88 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="12"/>
+              <c:pt idx="0">
+                <c:v>0.08</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>0.17</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>0.25</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>0.5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>20</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>30</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>'Yield Curve'!$B$2:$M$2</c:f>
+              <c:f>'Yield Curve'!$B$3:$M$3</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>8.3333333333333329E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.16666666666666666</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>30</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Yield Curve'!$B$6:$M$6</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.04</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.06</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2</c:v>
+                  <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.4</c:v>
+                  <c:v>1.18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.77</c:v>
+                  <c:v>1.47</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.08</c:v>
+                  <c:v>1.64</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3</c:v>
+                  <c:v>1.7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.85</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.92</c:v>
+                  <c:v>2.0499999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1071,15 +1104,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:colOff>3174</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>11113</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>620713</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>179386</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1105,10 +1138,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1374,606 +1403,512 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X27"/>
+  <dimension ref="A1:X25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.1328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.73046875" style="3" customWidth="1"/>
-    <col min="3" max="13" width="8.73046875" style="3"/>
-    <col min="14" max="14" width="8.86328125" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="8.73046875" style="3"/>
+    <col min="1" max="1" width="10.1328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.73046875" style="2" customWidth="1"/>
+    <col min="3" max="13" width="8.73046875" style="2"/>
+    <col min="14" max="14" width="8.86328125" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="8.73046875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A1" s="1">
-        <v>202208</v>
-      </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="7" t="s">
+      <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8">
-        <f>1/12</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="C2" s="8">
-        <f>2/12</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D2" s="8">
-        <f>3/12</f>
-        <v>0.25</v>
-      </c>
-      <c r="E2" s="9">
-        <f>6/12</f>
-        <v>0.5</v>
-      </c>
-      <c r="F2" s="10">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="10">
-        <v>2</v>
-      </c>
-      <c r="H2" s="10">
-        <v>3</v>
-      </c>
-      <c r="I2" s="10">
-        <v>5</v>
-      </c>
-      <c r="J2" s="10">
-        <v>7</v>
-      </c>
-      <c r="K2" s="10">
-        <v>10</v>
-      </c>
-      <c r="L2" s="10">
-        <v>20</v>
-      </c>
-      <c r="M2" s="10">
-        <v>30</v>
-      </c>
-      <c r="O2" s="11"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A2" s="6">
+        <v>44939</v>
+      </c>
+      <c r="B2" s="3" cm="1">
+        <f t="array" ref="B2:M2">_xll.xlquoteYieldCurve(A2)</f>
+        <v>4.58</v>
+      </c>
+      <c r="C2" s="3">
+        <v>4.59</v>
+      </c>
+      <c r="D2" s="3">
+        <v>4.67</v>
+      </c>
+      <c r="E2" s="3">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="F2" s="3">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="G2" s="3">
+        <v>4.22</v>
+      </c>
+      <c r="H2" s="3">
+        <v>3.88</v>
+      </c>
+      <c r="I2" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="J2" s="3">
+        <v>3.55</v>
+      </c>
+      <c r="K2" s="3">
+        <v>3.49</v>
+      </c>
+      <c r="L2" s="3">
+        <v>3.79</v>
+      </c>
+      <c r="M2" s="3">
+        <v>3.61</v>
+      </c>
+      <c r="N2" s="4">
+        <f>K2-G2</f>
+        <v>-0.72999999999999954</v>
+      </c>
+      <c r="O2" s="4">
+        <f>K2-D2</f>
+        <v>-1.1799999999999997</v>
+      </c>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="str" cm="1">
-        <f t="array" ref="A3:M4">_xll.xlquoteYieldCurve(A1)</f>
-        <v>Date</v>
-      </c>
-      <c r="B3" s="3" t="str">
-        <v>1 Mo</v>
-      </c>
-      <c r="C3" s="3" t="str">
-        <v>2 Mo</v>
-      </c>
-      <c r="D3" s="3" t="str">
-        <v>3 Mo</v>
-      </c>
-      <c r="E3" s="3" t="str">
-        <v>6 Mo</v>
-      </c>
-      <c r="F3" s="3" t="str">
-        <v>1 Yr</v>
-      </c>
-      <c r="G3" s="3" t="str">
-        <v>2 Yr</v>
-      </c>
-      <c r="H3" s="3" t="str">
-        <v>3 Yr</v>
-      </c>
-      <c r="I3" s="3" t="str">
-        <v>5 Yr</v>
-      </c>
-      <c r="J3" s="3" t="str">
-        <v>7 Yr</v>
-      </c>
-      <c r="K3" s="3" t="str">
-        <v>10 Yr</v>
-      </c>
-      <c r="L3" s="3" t="str">
-        <v>20 Yr</v>
-      </c>
-      <c r="M3" s="3" t="str">
-        <v>30 Yr</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
+      <c r="A3" s="6">
+        <f>A2-365</f>
+        <v>44574</v>
+      </c>
+      <c r="B3" s="3" cm="1">
+        <f t="array" ref="B3:M3">_xll.xlquoteYieldCurve(A3)</f>
+        <v>0.05</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.91</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1.18</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1.47</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1.64</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="L3" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="M3" s="3">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="N3" s="4">
+        <f>K3-G3</f>
+        <v>0.78999999999999992</v>
+      </c>
+      <c r="O3" s="4">
+        <f>K3-D3</f>
+        <v>1.58</v>
+      </c>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="str">
-        <v>08/26/2022</v>
-      </c>
-      <c r="B4" s="4">
-        <v>2.39</v>
-      </c>
-      <c r="C4" s="4">
-        <v>2.69</v>
-      </c>
-      <c r="D4" s="4">
-        <v>2.89</v>
-      </c>
-      <c r="E4" s="4">
-        <v>3.26</v>
-      </c>
-      <c r="F4" s="4">
-        <v>3.36</v>
-      </c>
-      <c r="G4" s="4">
-        <v>3.37</v>
-      </c>
-      <c r="H4" s="4">
-        <v>3.4</v>
-      </c>
-      <c r="I4" s="4">
-        <v>3.2</v>
-      </c>
-      <c r="J4" s="4">
-        <v>3.14</v>
-      </c>
-      <c r="K4" s="4">
-        <v>3.04</v>
-      </c>
-      <c r="L4" s="4">
-        <v>3.44</v>
-      </c>
-      <c r="M4" s="4">
-        <v>3.21</v>
-      </c>
-      <c r="N4" s="5">
-        <f>K4-G4</f>
-        <v>-0.33000000000000007</v>
-      </c>
-      <c r="O4" s="5">
-        <f>K4-D4</f>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-    </row>
-    <row r="5" spans="1:24" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="3" t="str" cm="1">
-        <f t="array" ref="A5:M6">_xll.xlquoteYieldCurve(LEFT(A1,4)-1&amp;RIGHT(A1,2))</f>
-        <v>Date</v>
-      </c>
-      <c r="B5" s="3" t="str">
-        <v>1 Mo</v>
-      </c>
-      <c r="C5" s="3" t="str">
-        <v>2 Mo</v>
-      </c>
-      <c r="D5" s="3" t="str">
-        <v>3 Mo</v>
-      </c>
-      <c r="E5" s="3" t="str">
-        <v>6 Mo</v>
-      </c>
-      <c r="F5" s="3" t="str">
-        <v>1 Yr</v>
-      </c>
-      <c r="G5" s="3" t="str">
-        <v>2 Yr</v>
-      </c>
-      <c r="H5" s="3" t="str">
-        <v>3 Yr</v>
-      </c>
-      <c r="I5" s="3" t="str">
-        <v>5 Yr</v>
-      </c>
-      <c r="J5" s="3" t="str">
-        <v>7 Yr</v>
-      </c>
-      <c r="K5" s="3" t="str">
-        <v>10 Yr</v>
-      </c>
-      <c r="L5" s="3" t="str">
-        <v>20 Yr</v>
-      </c>
-      <c r="M5" s="3" t="str">
-        <v>30 Yr</v>
-      </c>
-      <c r="N5" s="5" t="e">
-        <f t="shared" ref="N5:N6" si="0">K5-G5</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O5" s="5" t="e">
-        <f t="shared" ref="O5:O6" si="1">K5-D5</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A5" s="1"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A6" s="2" t="str">
-        <v>08/31/2021</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.04</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.06</v>
-      </c>
-      <c r="F6" s="4">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0.77</v>
-      </c>
-      <c r="J6" s="4">
-        <v>1.08</v>
-      </c>
-      <c r="K6" s="4">
-        <v>1.3</v>
-      </c>
-      <c r="L6" s="4">
-        <v>1.85</v>
-      </c>
-      <c r="M6" s="4">
-        <v>1.92</v>
-      </c>
-      <c r="N6" s="5">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="O6" s="5">
-        <f t="shared" si="1"/>
-        <v>1.26</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A7" s="2"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A8" s="2"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A9" s="2"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A10" s="2"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A11" s="2"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A12" s="2"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A13" s="2"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A14" s="2"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A15" s="2"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A16" s="2"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A17" s="2"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A18" s="2"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A19" s="2"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A20" s="2"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A21" s="2"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A22" s="2"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A23" s="2"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A24" s="2"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A25" s="2"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A26" s="2"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A27" s="2"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Examples/Yield Curve.xlsx
+++ b/Examples/Yield Curve.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\others\Data\XLQuote\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF740F3D-ED78-4180-A7D7-B2C3C2074AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="29000" windowHeight="15680"/>
   </bookViews>
   <sheets>
     <sheet name="Yield Curve" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="YearAgo">OFFSET('Yield Curve'!#REF!,'Yield Curve'!$N$2,0,1,12)</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,14 +35,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -108,9 +107,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -605,10 +605,10 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -708,6 +708,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -798,40 +799,40 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>4.58</c:v>
+                  <c:v>4.16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.59</c:v>
+                  <c:v>4.5599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.67</c:v>
+                  <c:v>4.79</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.7699999999999996</c:v>
+                  <c:v>4.95</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.6900000000000004</c:v>
+                  <c:v>4.5599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.22</c:v>
+                  <c:v>3.96</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.88</c:v>
+                  <c:v>3.76</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.6</c:v>
+                  <c:v>3.54</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.55</c:v>
+                  <c:v>3.53</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.49</c:v>
+                  <c:v>3.48</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.79</c:v>
+                  <c:v>3.83</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.61</c:v>
+                  <c:v>3.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -911,40 +912,40 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.05</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.05</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12</c:v>
+                  <c:v>0.51</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.96</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.47</c:v>
+                  <c:v>1.59</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.91</c:v>
+                  <c:v>2.1800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.18</c:v>
+                  <c:v>2.38</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.47</c:v>
+                  <c:v>2.39</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.64</c:v>
+                  <c:v>2.42</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.7</c:v>
+                  <c:v>2.38</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.1</c:v>
+                  <c:v>2.71</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.0499999999999998</c:v>
+                  <c:v>2.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1075,6 +1076,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1402,21 +1404,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.1328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.73046875" style="2" customWidth="1"/>
-    <col min="3" max="13" width="8.73046875" style="2"/>
-    <col min="14" max="14" width="8.86328125" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="8.73046875" style="2"/>
+    <col min="1" max="1" width="10.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="2" customWidth="1"/>
+    <col min="3" max="13" width="8.7265625" style="2"/>
+    <col min="14" max="14" width="8.81640625" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1462,64 +1464,65 @@
       <c r="O1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A2" s="6">
-        <v>44939</v>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A2" s="7">
+        <f>_xll.xlquoteDate("^TNX",0)</f>
+        <v>45007</v>
       </c>
       <c r="B2" s="3" cm="1">
         <f t="array" ref="B2:M2">_xll.xlquoteYieldCurve(A2)</f>
-        <v>4.58</v>
+        <v>4.16</v>
       </c>
       <c r="C2" s="3">
-        <v>4.59</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="D2" s="3">
-        <v>4.67</v>
+        <v>4.79</v>
       </c>
       <c r="E2" s="3">
-        <v>4.7699999999999996</v>
+        <v>4.95</v>
       </c>
       <c r="F2" s="3">
-        <v>4.6900000000000004</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="G2" s="3">
-        <v>4.22</v>
+        <v>3.96</v>
       </c>
       <c r="H2" s="3">
-        <v>3.88</v>
+        <v>3.76</v>
       </c>
       <c r="I2" s="3">
-        <v>3.6</v>
+        <v>3.54</v>
       </c>
       <c r="J2" s="3">
-        <v>3.55</v>
+        <v>3.53</v>
       </c>
       <c r="K2" s="3">
-        <v>3.49</v>
+        <v>3.48</v>
       </c>
       <c r="L2" s="3">
-        <v>3.79</v>
+        <v>3.83</v>
       </c>
       <c r="M2" s="3">
-        <v>3.61</v>
+        <v>3.68</v>
       </c>
       <c r="N2" s="4">
         <f>K2-G2</f>
-        <v>-0.72999999999999954</v>
+        <v>-0.48</v>
       </c>
       <c r="O2" s="4">
         <f>K2-D2</f>
-        <v>-1.1799999999999997</v>
+        <v>-1.31</v>
       </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
@@ -1530,55 +1533,55 @@
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A3" s="6">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A3" s="7">
         <f>A2-365</f>
-        <v>44574</v>
+        <v>44642</v>
       </c>
       <c r="B3" s="3" cm="1">
         <f t="array" ref="B3:M3">_xll.xlquoteYieldCurve(A3)</f>
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="C3" s="3">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="D3" s="3">
-        <v>0.12</v>
+        <v>0.51</v>
       </c>
       <c r="E3" s="3">
-        <v>0.28000000000000003</v>
+        <v>0.96</v>
       </c>
       <c r="F3" s="3">
-        <v>0.47</v>
+        <v>1.59</v>
       </c>
       <c r="G3" s="3">
-        <v>0.91</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="H3" s="3">
-        <v>1.18</v>
+        <v>2.38</v>
       </c>
       <c r="I3" s="3">
-        <v>1.47</v>
+        <v>2.39</v>
       </c>
       <c r="J3" s="3">
-        <v>1.64</v>
+        <v>2.42</v>
       </c>
       <c r="K3" s="3">
-        <v>1.7</v>
+        <v>2.38</v>
       </c>
       <c r="L3" s="3">
-        <v>2.1</v>
+        <v>2.71</v>
       </c>
       <c r="M3" s="3">
-        <v>2.0499999999999998</v>
+        <v>2.6</v>
       </c>
       <c r="N3" s="4">
         <f>K3-G3</f>
-        <v>0.78999999999999992</v>
+        <v>0.19999999999999973</v>
       </c>
       <c r="O3" s="4">
         <f>K3-D3</f>
-        <v>1.58</v>
+        <v>1.8699999999999999</v>
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
@@ -1589,11 +1592,11 @@
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1610,7 +1613,7 @@
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1625,7 +1628,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1640,7 +1643,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1655,7 +1658,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1670,7 +1673,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1685,7 +1688,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1700,7 +1703,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1715,7 +1718,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1730,7 +1733,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1745,7 +1748,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1760,7 +1763,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1775,7 +1778,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1790,7 +1793,7 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1805,7 +1808,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1820,7 +1823,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1835,7 +1838,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1850,7 +1853,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1865,7 +1868,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1880,7 +1883,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1895,7 +1898,7 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
